--- a/db_tools/acctg_db4/acctg_export4.xlsx
+++ b/db_tools/acctg_db4/acctg_export4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingPython\thanos_app\db_tools\acctg_db4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A8AA8B-417A-4066-B6AD-E0A0C89645A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC8B07-808D-4C92-9786-F2692DF87569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="account_types" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="bank_accounts" sheetId="10" r:id="rId10"/>
     <sheet name="journals" sheetId="11" r:id="rId11"/>
     <sheet name="journal_lines" sheetId="12" r:id="rId12"/>
-    <sheet name="products" sheetId="15" r:id="rId13"/>
+    <sheet name="items" sheetId="15" r:id="rId13"/>
     <sheet name="invoices" sheetId="13" r:id="rId14"/>
     <sheet name="invoice_lines" sheetId="16" r:id="rId15"/>
     <sheet name="invoice_payments" sheetId="24" r:id="rId16"/>
@@ -44,9 +44,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">cash_transactions!$A$1:$K$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">invoice_lines!$A$1:$K$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">invoices!$A$1:$K$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">items!$A$1:$P$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">journal_lines!$A$1:$F$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">journals!$A$1:$E$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">products!$A$1:$P$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2027,9 +2027,6 @@
     <t>invoice_id</t>
   </si>
   <si>
-    <t>product_id</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -3591,6 +3588,9 @@
   </si>
   <si>
     <t>contact_type</t>
+  </si>
+  <si>
+    <t>item_id</t>
   </si>
 </sst>
 </file>
@@ -6734,7 +6734,7 @@
         <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -7753,8 +7753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7801,10 +7801,10 @@
         <v>626</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>627</v>
@@ -8159,10 +8159,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C9" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D9">
         <v>2500</v>
@@ -8200,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C10" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D10">
         <v>500</v>
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -8346,10 +8346,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -8381,10 +8381,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D15">
         <v>3000</v>
@@ -8416,10 +8416,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D16">
         <v>220</v>
@@ -8451,10 +8451,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D17">
         <v>3000</v>
@@ -8489,7 +8489,7 @@
         <v>567</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D18">
         <v>3500</v>
@@ -8524,7 +8524,7 @@
         <v>620</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D19">
         <v>3800</v>
@@ -8599,7 +8599,7 @@
         <v>454</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>456</v>
@@ -8625,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D2" t="s">
         <v>458</v>
@@ -8660,7 +8660,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D3" t="s">
         <v>463</v>
@@ -8695,7 +8695,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D4" t="s">
         <v>466</v>
@@ -8730,7 +8730,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D5" t="s">
         <v>469</v>
@@ -8765,7 +8765,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D6" t="s">
         <v>472</v>
@@ -8800,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D7" t="s">
         <v>475</v>
@@ -8835,7 +8835,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D8" t="s">
         <v>478</v>
@@ -8870,7 +8870,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D9" t="s">
         <v>480</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D10" t="s">
         <v>482</v>
@@ -8940,7 +8940,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D11" t="s">
         <v>484</v>
@@ -8975,7 +8975,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D12" t="s">
         <v>486</v>
@@ -9010,7 +9010,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D13" t="s">
         <v>489</v>
@@ -9045,7 +9045,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D14" t="s">
         <v>487</v>
@@ -9080,7 +9080,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D15" t="s">
         <v>490</v>
@@ -9115,7 +9115,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D16" t="s">
         <v>502</v>
@@ -9150,7 +9150,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D17" t="s">
         <v>505</v>
@@ -9185,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D18" t="s">
         <v>508</v>
@@ -9220,7 +9220,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D19" t="s">
         <v>511</v>
@@ -9255,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D20" t="s">
         <v>509</v>
@@ -9290,7 +9290,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D21" t="s">
         <v>512</v>
@@ -9325,7 +9325,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D22" t="s">
         <v>517</v>
@@ -9360,7 +9360,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D23" t="s">
         <v>519</v>
@@ -9378,7 +9378,7 @@
         <v>3225</v>
       </c>
       <c r="I23" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J23" t="s">
         <v>461</v>
@@ -9395,7 +9395,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D24" t="s">
         <v>496</v>
@@ -9430,7 +9430,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D25" t="s">
         <v>499</v>
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D26" t="s">
         <v>520</v>
@@ -9500,7 +9500,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D27" t="s">
         <v>522</v>
@@ -9535,7 +9535,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D28" t="s">
         <v>525</v>
@@ -9570,7 +9570,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D29" t="s">
         <v>528</v>
@@ -9605,7 +9605,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D30" t="s">
         <v>531</v>
@@ -9640,7 +9640,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D31" t="s">
         <v>533</v>
@@ -9675,7 +9675,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D32" t="s">
         <v>536</v>
@@ -9710,7 +9710,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D33" t="s">
         <v>539</v>
@@ -9745,7 +9745,7 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D34" t="s">
         <v>537</v>
@@ -9780,7 +9780,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D35" t="s">
         <v>540</v>
@@ -9815,7 +9815,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D36" t="s">
         <v>546</v>
@@ -9833,7 +9833,7 @@
         <v>6450</v>
       </c>
       <c r="I36" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J36" t="s">
         <v>461</v>
@@ -9850,7 +9850,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D37" t="s">
         <v>548</v>
@@ -9885,7 +9885,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D38" t="s">
         <v>547</v>
@@ -9920,7 +9920,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D39" t="s">
         <v>549</v>
@@ -9955,7 +9955,7 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D40" t="s">
         <v>555</v>
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D41" t="s">
         <v>558</v>
@@ -10025,7 +10025,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D42" t="s">
         <v>561</v>
@@ -10060,7 +10060,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D43" t="s">
         <v>564</v>
@@ -10095,7 +10095,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D44" t="s">
         <v>562</v>
@@ -10130,7 +10130,7 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D45" t="s">
         <v>565</v>
@@ -10165,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D46" t="s">
         <v>571</v>
@@ -10200,7 +10200,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D47" t="s">
         <v>574</v>
@@ -10218,7 +10218,7 @@
         <v>6235</v>
       </c>
       <c r="I47" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J47" t="s">
         <v>461</v>
@@ -10235,7 +10235,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D48" t="s">
         <v>572</v>
@@ -10253,7 +10253,7 @@
         <v>3762.5</v>
       </c>
       <c r="I48" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J48" t="s">
         <v>461</v>
@@ -10270,7 +10270,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D49" t="s">
         <v>575</v>
@@ -10305,7 +10305,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D50" t="s">
         <v>579</v>
@@ -10340,7 +10340,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D51" t="s">
         <v>582</v>
@@ -10375,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D52" t="s">
         <v>586</v>
@@ -10410,7 +10410,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D53" t="s">
         <v>589</v>
@@ -10445,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D54" t="s">
         <v>592</v>
@@ -10480,7 +10480,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D55" t="s">
         <v>594</v>
@@ -10515,7 +10515,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D56" t="s">
         <v>597</v>
@@ -10550,7 +10550,7 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D57" t="s">
         <v>600</v>
@@ -10585,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D58" t="s">
         <v>603</v>
@@ -10620,7 +10620,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D59" t="s">
         <v>607</v>
@@ -10655,7 +10655,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D60" t="s">
         <v>604</v>
@@ -10690,7 +10690,7 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D61" t="s">
         <v>608</v>
@@ -10708,7 +10708,7 @@
         <v>3762.5</v>
       </c>
       <c r="I61" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J61" t="s">
         <v>461</v>
@@ -10725,7 +10725,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D62" t="s">
         <v>612</v>
@@ -10760,7 +10760,7 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D63" t="s">
         <v>615</v>
@@ -10795,7 +10795,7 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D64" t="s">
         <v>618</v>
@@ -10830,7 +10830,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D65" t="s">
         <v>392</v>
@@ -10901,7 +10901,7 @@
         <v>652</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>653</v>
+        <v>1174</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>332</v>
@@ -10910,22 +10910,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>625</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>456</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -11254,7 +11254,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -11359,7 +11359,7 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -11429,7 +11429,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -11464,7 +11464,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -11499,7 +11499,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -11569,7 +11569,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -11639,7 +11639,7 @@
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -11779,7 +11779,7 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -11814,7 +11814,7 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -11884,7 +11884,7 @@
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -11919,7 +11919,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -12024,7 +12024,7 @@
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -12059,7 +12059,7 @@
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -12094,7 +12094,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -12129,7 +12129,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -12374,7 +12374,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -12759,7 +12759,7 @@
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F54">
         <v>29</v>
@@ -12794,7 +12794,7 @@
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -13249,7 +13249,7 @@
         <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -13455,13 +13455,13 @@
         <v>348</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>332</v>
@@ -13481,7 +13481,7 @@
         <v>2687.5</v>
       </c>
       <c r="E2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -13498,13 +13498,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D3">
         <v>4568.75</v>
       </c>
       <c r="E3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -13521,13 +13521,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D4">
         <v>1075</v>
       </c>
       <c r="E4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -13544,13 +13544,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D5">
         <v>6450</v>
       </c>
       <c r="E5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -13567,13 +13567,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D6">
         <v>5375</v>
       </c>
       <c r="E6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -13590,13 +13590,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D7">
         <v>2687.5</v>
       </c>
       <c r="E7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -13613,13 +13613,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D8">
         <v>4031.25</v>
       </c>
       <c r="E8" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -13636,13 +13636,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D9">
         <v>1612.5</v>
       </c>
       <c r="E9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -13665,7 +13665,7 @@
         <v>3225</v>
       </c>
       <c r="E10" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -13688,7 +13688,7 @@
         <v>3225</v>
       </c>
       <c r="E11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -13711,7 +13711,7 @@
         <v>483.75</v>
       </c>
       <c r="E12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -13734,7 +13734,7 @@
         <v>3225</v>
       </c>
       <c r="E13" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F13">
         <v>3</v>
@@ -13757,7 +13757,7 @@
         <v>483.75</v>
       </c>
       <c r="E14" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -13780,7 +13780,7 @@
         <v>3225</v>
       </c>
       <c r="E15" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -13803,7 +13803,7 @@
         <v>946</v>
       </c>
       <c r="E16" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -13826,7 +13826,7 @@
         <v>2418.75</v>
       </c>
       <c r="E17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -13849,7 +13849,7 @@
         <v>6450</v>
       </c>
       <c r="E18" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -13872,7 +13872,7 @@
         <v>1935</v>
       </c>
       <c r="E19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -13895,7 +13895,7 @@
         <v>4837.5</v>
       </c>
       <c r="E20" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -13918,7 +13918,7 @@
         <v>4837.5</v>
       </c>
       <c r="E21" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -13941,7 +13941,7 @@
         <v>806.25</v>
       </c>
       <c r="E22" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -13964,7 +13964,7 @@
         <v>3225</v>
       </c>
       <c r="E23" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -13987,7 +13987,7 @@
         <v>3225</v>
       </c>
       <c r="E24" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -14010,7 +14010,7 @@
         <v>1612.5</v>
       </c>
       <c r="E25" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -14033,7 +14033,7 @@
         <v>4515</v>
       </c>
       <c r="E26" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -14056,7 +14056,7 @@
         <v>3225</v>
       </c>
       <c r="E27" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -14079,7 +14079,7 @@
         <v>7632.5</v>
       </c>
       <c r="E28" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -14102,7 +14102,7 @@
         <v>2687.5</v>
       </c>
       <c r="E29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -14125,7 +14125,7 @@
         <v>3762.5</v>
       </c>
       <c r="E30" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -14148,7 +14148,7 @@
         <v>4031.25</v>
       </c>
       <c r="E31" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F31">
         <v>3</v>
@@ -14171,7 +14171,7 @@
         <v>3225</v>
       </c>
       <c r="E32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -14194,7 +14194,7 @@
         <v>4031.25</v>
       </c>
       <c r="E33" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -14217,7 +14217,7 @@
         <v>4837.5</v>
       </c>
       <c r="E34" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -14240,7 +14240,7 @@
         <v>3225</v>
       </c>
       <c r="E35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -14263,7 +14263,7 @@
         <v>6450</v>
       </c>
       <c r="E36" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -14286,7 +14286,7 @@
         <v>4515</v>
       </c>
       <c r="E37" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -14309,7 +14309,7 @@
         <v>4837.5</v>
       </c>
       <c r="E38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -14332,7 +14332,7 @@
         <v>7095</v>
       </c>
       <c r="E39" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -14355,7 +14355,7 @@
         <v>6450</v>
       </c>
       <c r="E40" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -14378,7 +14378,7 @@
         <v>4031.25</v>
       </c>
       <c r="E41" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -14401,7 +14401,7 @@
         <v>6450</v>
       </c>
       <c r="E42" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -14424,7 +14424,7 @@
         <v>5160</v>
       </c>
       <c r="E43" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -14447,7 +14447,7 @@
         <v>7525</v>
       </c>
       <c r="E44" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -14470,7 +14470,7 @@
         <v>6127.5</v>
       </c>
       <c r="E45" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -14493,7 +14493,7 @@
         <v>8062.5</v>
       </c>
       <c r="E46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -14516,7 +14516,7 @@
         <v>6235</v>
       </c>
       <c r="E47" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -14539,7 +14539,7 @@
         <v>3762.5</v>
       </c>
       <c r="E48" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -14562,7 +14562,7 @@
         <v>3762.5</v>
       </c>
       <c r="E49" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -14585,7 +14585,7 @@
         <v>9460</v>
       </c>
       <c r="E50" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -14608,7 +14608,7 @@
         <v>6450</v>
       </c>
       <c r="E51" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -14631,7 +14631,7 @@
         <v>6450</v>
       </c>
       <c r="E52" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -14654,7 +14654,7 @@
         <v>9675</v>
       </c>
       <c r="E53" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -14677,7 +14677,7 @@
         <v>7525</v>
       </c>
       <c r="E54" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -14700,7 +14700,7 @@
         <v>8062.5</v>
       </c>
       <c r="E55" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F55">
         <v>3</v>
@@ -14723,7 +14723,7 @@
         <v>7256.25</v>
       </c>
       <c r="E56" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -14746,7 +14746,7 @@
         <v>3762.5</v>
       </c>
       <c r="E57" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F57">
         <v>3</v>
@@ -14769,7 +14769,7 @@
         <v>1290</v>
       </c>
       <c r="E58" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F58">
         <v>2</v>
@@ -14809,10 +14809,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>348</v>
@@ -14821,7 +14821,7 @@
         <v>454</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>456</v>
@@ -14847,13 +14847,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E2" t="s">
         <v>670</v>
-      </c>
-      <c r="E2" t="s">
-        <v>671</v>
       </c>
       <c r="F2">
         <v>260</v>
@@ -14865,7 +14865,7 @@
         <v>279.5</v>
       </c>
       <c r="I2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J2" t="s">
         <v>461</v>
@@ -14882,7 +14882,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D3" t="s">
         <v>458</v>
@@ -14900,7 +14900,7 @@
         <v>2096.25</v>
       </c>
       <c r="I3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J3" t="s">
         <v>461</v>
@@ -14917,13 +14917,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E4" t="s">
         <v>674</v>
-      </c>
-      <c r="E4" t="s">
-        <v>675</v>
       </c>
       <c r="F4">
         <v>1150</v>
@@ -14935,7 +14935,7 @@
         <v>1236.25</v>
       </c>
       <c r="I4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J4" t="s">
         <v>461</v>
@@ -14952,7 +14952,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D5" t="s">
         <v>469</v>
@@ -14970,7 +14970,7 @@
         <v>1128.75</v>
       </c>
       <c r="I5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J5" t="s">
         <v>461</v>
@@ -14987,7 +14987,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D6" t="s">
         <v>472</v>
@@ -15005,7 +15005,7 @@
         <v>279.5</v>
       </c>
       <c r="I6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J6" t="s">
         <v>461</v>
@@ -15022,7 +15022,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D7" t="s">
         <v>475</v>
@@ -15040,7 +15040,7 @@
         <v>817</v>
       </c>
       <c r="I7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J7" t="s">
         <v>461</v>
@@ -15057,7 +15057,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D8" t="s">
         <v>478</v>
@@ -15092,7 +15092,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D9" t="s">
         <v>480</v>
@@ -15110,7 +15110,7 @@
         <v>2150</v>
       </c>
       <c r="I9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J9" t="s">
         <v>461</v>
@@ -15127,13 +15127,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D10" t="s">
+        <v>678</v>
+      </c>
+      <c r="E10" t="s">
         <v>679</v>
-      </c>
-      <c r="E10" t="s">
-        <v>680</v>
       </c>
       <c r="F10">
         <v>1140</v>
@@ -15145,7 +15145,7 @@
         <v>1225.5</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J10" t="s">
         <v>461</v>
@@ -15162,13 +15162,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D11" t="s">
+        <v>680</v>
+      </c>
+      <c r="E11" t="s">
         <v>681</v>
-      </c>
-      <c r="E11" t="s">
-        <v>682</v>
       </c>
       <c r="F11">
         <v>2850</v>
@@ -15180,7 +15180,7 @@
         <v>3063.75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J11" t="s">
         <v>461</v>
@@ -15197,13 +15197,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D12" t="s">
+        <v>682</v>
+      </c>
+      <c r="E12" t="s">
         <v>683</v>
-      </c>
-      <c r="E12" t="s">
-        <v>684</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -15215,7 +15215,7 @@
         <v>1075</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="J12" t="s">
         <v>461</v>
@@ -15232,13 +15232,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D13" t="s">
+        <v>684</v>
+      </c>
+      <c r="E13" t="s">
         <v>685</v>
-      </c>
-      <c r="E13" t="s">
-        <v>686</v>
       </c>
       <c r="F13">
         <v>1100</v>
@@ -15250,7 +15250,7 @@
         <v>1182.5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J13" t="s">
         <v>461</v>
@@ -15267,13 +15267,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E14" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F14">
         <v>1600</v>
@@ -15285,7 +15285,7 @@
         <v>1720</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J14" t="s">
         <v>461</v>
@@ -15302,13 +15302,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F15">
         <v>380</v>
@@ -15337,13 +15337,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D16" t="s">
+        <v>693</v>
+      </c>
+      <c r="E16" t="s">
         <v>694</v>
-      </c>
-      <c r="E16" t="s">
-        <v>695</v>
       </c>
       <c r="F16">
         <v>3500</v>
@@ -15355,7 +15355,7 @@
         <v>3762.5</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="J16" t="s">
         <v>461</v>
@@ -15372,13 +15372,13 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D17" t="s">
+        <v>695</v>
+      </c>
+      <c r="E17" t="s">
         <v>696</v>
-      </c>
-      <c r="E17" t="s">
-        <v>697</v>
       </c>
       <c r="F17">
         <v>4100</v>
@@ -15390,7 +15390,7 @@
         <v>4407.5</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="J17" t="s">
         <v>461</v>
@@ -15407,13 +15407,13 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D18" t="s">
+        <v>697</v>
+      </c>
+      <c r="E18" t="s">
         <v>698</v>
-      </c>
-      <c r="E18" t="s">
-        <v>699</v>
       </c>
       <c r="F18">
         <v>3560</v>
@@ -15425,7 +15425,7 @@
         <v>3827</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J18" t="s">
         <v>461</v>
@@ -15442,13 +15442,13 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E19" t="s">
         <v>701</v>
-      </c>
-      <c r="E19" t="s">
-        <v>702</v>
       </c>
       <c r="F19">
         <v>3200</v>
@@ -15460,7 +15460,7 @@
         <v>3440</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J19" t="s">
         <v>461</v>
@@ -15477,13 +15477,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E20" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F20">
         <v>5150</v>
@@ -15495,7 +15495,7 @@
         <v>5536.25</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="J20" t="s">
         <v>461</v>
@@ -15512,13 +15512,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F21">
         <v>3100</v>
@@ -15530,7 +15530,7 @@
         <v>3332.5</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J21" t="s">
         <v>461</v>
@@ -15547,13 +15547,13 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F22">
         <v>4900</v>
@@ -15565,7 +15565,7 @@
         <v>5267.5</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J22" t="s">
         <v>461</v>
@@ -15582,13 +15582,13 @@
         <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F23">
         <v>2300</v>
@@ -15600,7 +15600,7 @@
         <v>2472.5</v>
       </c>
       <c r="I23" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="J23" t="s">
         <v>461</v>
@@ -15617,13 +15617,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D24" t="s">
+        <v>688</v>
+      </c>
+      <c r="E24" t="s">
         <v>689</v>
-      </c>
-      <c r="E24" t="s">
-        <v>690</v>
       </c>
       <c r="F24">
         <v>1250</v>
@@ -15652,13 +15652,13 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D25" t="s">
+        <v>691</v>
+      </c>
+      <c r="E25" t="s">
         <v>692</v>
-      </c>
-      <c r="E25" t="s">
-        <v>693</v>
       </c>
       <c r="F25">
         <v>2100</v>
@@ -15670,7 +15670,7 @@
         <v>2257.5</v>
       </c>
       <c r="I25" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J25" t="s">
         <v>461</v>
@@ -15687,13 +15687,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D26" t="s">
+        <v>708</v>
+      </c>
+      <c r="E26" t="s">
         <v>709</v>
-      </c>
-      <c r="E26" t="s">
-        <v>710</v>
       </c>
       <c r="F26">
         <v>2560</v>
@@ -15705,7 +15705,7 @@
         <v>2752</v>
       </c>
       <c r="I26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J26" t="s">
         <v>461</v>
@@ -15722,13 +15722,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D27" t="s">
+        <v>710</v>
+      </c>
+      <c r="E27" t="s">
         <v>711</v>
-      </c>
-      <c r="E27" t="s">
-        <v>712</v>
       </c>
       <c r="F27">
         <v>3250</v>
@@ -15740,7 +15740,7 @@
         <v>3493.75</v>
       </c>
       <c r="I27" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J27" t="s">
         <v>461</v>
@@ -15757,13 +15757,13 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D28" t="s">
+        <v>712</v>
+      </c>
+      <c r="E28" t="s">
         <v>713</v>
-      </c>
-      <c r="E28" t="s">
-        <v>714</v>
       </c>
       <c r="F28">
         <v>3800</v>
@@ -15775,7 +15775,7 @@
         <v>4085</v>
       </c>
       <c r="I28" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J28" t="s">
         <v>461</v>
@@ -15792,13 +15792,13 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D29" t="s">
+        <v>715</v>
+      </c>
+      <c r="E29" t="s">
         <v>716</v>
-      </c>
-      <c r="E29" t="s">
-        <v>717</v>
       </c>
       <c r="F29">
         <v>1500</v>
@@ -15827,13 +15827,13 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D30" t="s">
+        <v>717</v>
+      </c>
+      <c r="E30" t="s">
         <v>718</v>
-      </c>
-      <c r="E30" t="s">
-        <v>719</v>
       </c>
       <c r="F30">
         <v>1350</v>
@@ -15845,7 +15845,7 @@
         <v>1451.25</v>
       </c>
       <c r="I30" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="J30" t="s">
         <v>461</v>
@@ -15862,13 +15862,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D31" t="s">
+        <v>719</v>
+      </c>
+      <c r="E31" t="s">
         <v>720</v>
-      </c>
-      <c r="E31" t="s">
-        <v>721</v>
       </c>
       <c r="F31">
         <v>2300</v>
@@ -15880,7 +15880,7 @@
         <v>2472.5</v>
       </c>
       <c r="I31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J31" t="s">
         <v>461</v>
@@ -15897,13 +15897,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D32" t="s">
+        <v>722</v>
+      </c>
+      <c r="E32" t="s">
         <v>723</v>
-      </c>
-      <c r="E32" t="s">
-        <v>724</v>
       </c>
       <c r="F32">
         <v>2000</v>
@@ -15915,7 +15915,7 @@
         <v>2150</v>
       </c>
       <c r="I32" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J32" t="s">
         <v>461</v>
@@ -15932,13 +15932,13 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D33" t="s">
+        <v>724</v>
+      </c>
+      <c r="E33" t="s">
         <v>725</v>
-      </c>
-      <c r="E33" t="s">
-        <v>726</v>
       </c>
       <c r="F33">
         <v>3750</v>
@@ -15950,7 +15950,7 @@
         <v>4031.25</v>
       </c>
       <c r="I33" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J33" t="s">
         <v>461</v>
@@ -15967,13 +15967,13 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D34" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F34">
         <v>3250</v>
@@ -15985,7 +15985,7 @@
         <v>3493.75</v>
       </c>
       <c r="I34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J34" t="s">
         <v>461</v>
@@ -16002,13 +16002,13 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E35" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F35">
         <v>2050</v>
@@ -16020,7 +16020,7 @@
         <v>2203.75</v>
       </c>
       <c r="I35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J35" t="s">
         <v>461</v>
@@ -16037,13 +16037,13 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D36" t="s">
+        <v>728</v>
+      </c>
+      <c r="E36" t="s">
         <v>729</v>
-      </c>
-      <c r="E36" t="s">
-        <v>730</v>
       </c>
       <c r="F36">
         <v>3000</v>
@@ -16055,7 +16055,7 @@
         <v>3225</v>
       </c>
       <c r="I36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J36" t="s">
         <v>461</v>
@@ -16072,13 +16072,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D37" t="s">
+        <v>730</v>
+      </c>
+      <c r="E37" t="s">
         <v>731</v>
-      </c>
-      <c r="E37" t="s">
-        <v>732</v>
       </c>
       <c r="F37">
         <v>2400</v>
@@ -16090,7 +16090,7 @@
         <v>2580</v>
       </c>
       <c r="I37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J37" t="s">
         <v>461</v>
@@ -16107,13 +16107,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F38">
         <v>3000</v>
@@ -16125,7 +16125,7 @@
         <v>3225</v>
       </c>
       <c r="I38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J38" t="s">
         <v>461</v>
@@ -16142,13 +16142,13 @@
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F39">
         <v>2600</v>
@@ -16160,7 +16160,7 @@
         <v>2795</v>
       </c>
       <c r="I39" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J39" t="s">
         <v>461</v>
@@ -16177,13 +16177,13 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D40" t="s">
+        <v>735</v>
+      </c>
+      <c r="E40" t="s">
         <v>736</v>
-      </c>
-      <c r="E40" t="s">
-        <v>737</v>
       </c>
       <c r="F40">
         <v>3000</v>
@@ -16195,7 +16195,7 @@
         <v>3225</v>
       </c>
       <c r="I40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J40" t="s">
         <v>461</v>
@@ -16212,13 +16212,13 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D41" t="s">
+        <v>737</v>
+      </c>
+      <c r="E41" t="s">
         <v>738</v>
-      </c>
-      <c r="E41" t="s">
-        <v>739</v>
       </c>
       <c r="F41">
         <v>1200</v>
@@ -16230,7 +16230,7 @@
         <v>1290</v>
       </c>
       <c r="I41" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J41" t="s">
         <v>461</v>
@@ -16247,13 +16247,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D42" t="s">
+        <v>739</v>
+      </c>
+      <c r="E42" t="s">
         <v>740</v>
-      </c>
-      <c r="E42" t="s">
-        <v>741</v>
       </c>
       <c r="F42">
         <v>2000</v>
@@ -16265,7 +16265,7 @@
         <v>2150</v>
       </c>
       <c r="I42" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J42" t="s">
         <v>461</v>
@@ -16282,13 +16282,13 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D43" t="s">
+        <v>741</v>
+      </c>
+      <c r="E43" t="s">
         <v>742</v>
-      </c>
-      <c r="E43" t="s">
-        <v>743</v>
       </c>
       <c r="F43">
         <v>2700</v>
@@ -16300,7 +16300,7 @@
         <v>2902.5</v>
       </c>
       <c r="I43" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J43" t="s">
         <v>461</v>
@@ -16317,13 +16317,13 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D44" t="s">
+        <v>743</v>
+      </c>
+      <c r="E44" t="s">
         <v>744</v>
-      </c>
-      <c r="E44" t="s">
-        <v>745</v>
       </c>
       <c r="F44">
         <v>2100</v>
@@ -16335,7 +16335,7 @@
         <v>2257.5</v>
       </c>
       <c r="I44" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J44" t="s">
         <v>578</v>
@@ -16352,13 +16352,13 @@
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E45" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F45">
         <v>3900</v>
@@ -16370,7 +16370,7 @@
         <v>4192.5</v>
       </c>
       <c r="I45" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J45" t="s">
         <v>461</v>
@@ -16387,13 +16387,13 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D46" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E46" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F46">
         <v>3500</v>
@@ -16405,7 +16405,7 @@
         <v>3762.5</v>
       </c>
       <c r="I46" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J46" t="s">
         <v>461</v>
@@ -16422,13 +16422,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D47" t="s">
+        <v>747</v>
+      </c>
+      <c r="E47" t="s">
         <v>748</v>
-      </c>
-      <c r="E47" t="s">
-        <v>749</v>
       </c>
       <c r="F47">
         <v>2000</v>
@@ -16440,7 +16440,7 @@
         <v>2150</v>
       </c>
       <c r="I47" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J47" t="s">
         <v>461</v>
@@ -16457,13 +16457,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D48" t="s">
+        <v>749</v>
+      </c>
+      <c r="E48" t="s">
         <v>750</v>
-      </c>
-      <c r="E48" t="s">
-        <v>751</v>
       </c>
       <c r="F48">
         <v>3150</v>
@@ -16475,7 +16475,7 @@
         <v>3386.25</v>
       </c>
       <c r="I48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J48" t="s">
         <v>461</v>
@@ -16492,13 +16492,13 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D49" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E49" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F49">
         <v>5700</v>
@@ -16510,7 +16510,7 @@
         <v>6127.5</v>
       </c>
       <c r="I49" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J49" t="s">
         <v>461</v>
@@ -16527,13 +16527,13 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D50" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E50" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F50">
         <v>4200</v>
@@ -16545,7 +16545,7 @@
         <v>4515</v>
       </c>
       <c r="I50" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J50" t="s">
         <v>578</v>
@@ -16562,13 +16562,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D51" t="s">
+        <v>755</v>
+      </c>
+      <c r="E51" t="s">
         <v>756</v>
-      </c>
-      <c r="E51" t="s">
-        <v>757</v>
       </c>
       <c r="F51">
         <v>400</v>
@@ -16580,7 +16580,7 @@
         <v>430</v>
       </c>
       <c r="I51" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J51" t="s">
         <v>461</v>
@@ -16597,13 +16597,13 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D52" t="s">
+        <v>758</v>
+      </c>
+      <c r="E52" t="s">
         <v>759</v>
-      </c>
-      <c r="E52" t="s">
-        <v>760</v>
       </c>
       <c r="F52">
         <v>3900</v>
@@ -16615,7 +16615,7 @@
         <v>4192.5</v>
       </c>
       <c r="I52" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J52" t="s">
         <v>461</v>
@@ -16632,13 +16632,13 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D53" t="s">
+        <v>760</v>
+      </c>
+      <c r="E53" t="s">
         <v>761</v>
-      </c>
-      <c r="E53" t="s">
-        <v>762</v>
       </c>
       <c r="F53">
         <v>4450</v>
@@ -16650,7 +16650,7 @@
         <v>4783.75</v>
       </c>
       <c r="I53" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J53" t="s">
         <v>461</v>
@@ -16667,13 +16667,13 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D54" t="s">
+        <v>762</v>
+      </c>
+      <c r="E54" t="s">
         <v>763</v>
-      </c>
-      <c r="E54" t="s">
-        <v>764</v>
       </c>
       <c r="F54">
         <v>750</v>
@@ -16685,7 +16685,7 @@
         <v>806.25</v>
       </c>
       <c r="I54" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J54" t="s">
         <v>461</v>
@@ -16702,13 +16702,13 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D55" t="s">
+        <v>764</v>
+      </c>
+      <c r="E55" t="s">
         <v>765</v>
-      </c>
-      <c r="E55" t="s">
-        <v>766</v>
       </c>
       <c r="F55">
         <v>3700</v>
@@ -16720,7 +16720,7 @@
         <v>3977.5</v>
       </c>
       <c r="I55" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="J55" t="s">
         <v>461</v>
@@ -16737,13 +16737,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D56" t="s">
+        <v>766</v>
+      </c>
+      <c r="E56" t="s">
         <v>767</v>
-      </c>
-      <c r="E56" t="s">
-        <v>768</v>
       </c>
       <c r="F56">
         <v>3250</v>
@@ -16755,7 +16755,7 @@
         <v>3493.75</v>
       </c>
       <c r="I56" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J56" t="s">
         <v>578</v>
@@ -16772,13 +16772,13 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D57" t="s">
+        <v>769</v>
+      </c>
+      <c r="E57" t="s">
         <v>770</v>
-      </c>
-      <c r="E57" t="s">
-        <v>771</v>
       </c>
       <c r="F57">
         <v>8800</v>
@@ -16790,7 +16790,7 @@
         <v>9460</v>
       </c>
       <c r="I57" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J57" t="s">
         <v>578</v>
@@ -16807,13 +16807,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D58" t="s">
+        <v>771</v>
+      </c>
+      <c r="E58" t="s">
         <v>772</v>
-      </c>
-      <c r="E58" t="s">
-        <v>773</v>
       </c>
       <c r="F58">
         <v>450</v>
@@ -16825,7 +16825,7 @@
         <v>483.75</v>
       </c>
       <c r="I58" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J58" t="s">
         <v>461</v>
@@ -16842,13 +16842,13 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D59" t="s">
+        <v>774</v>
+      </c>
+      <c r="E59" t="s">
         <v>775</v>
-      </c>
-      <c r="E59" t="s">
-        <v>776</v>
       </c>
       <c r="F59">
         <v>4400</v>
@@ -16877,13 +16877,13 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D60" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E60" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F60">
         <v>5100</v>
@@ -16895,7 +16895,7 @@
         <v>5482.5</v>
       </c>
       <c r="I60" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J60" t="s">
         <v>461</v>
@@ -16912,13 +16912,13 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D61" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E61" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F61">
         <v>1000</v>
@@ -16947,13 +16947,13 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D62" t="s">
+        <v>779</v>
+      </c>
+      <c r="E62" t="s">
         <v>780</v>
-      </c>
-      <c r="E62" t="s">
-        <v>781</v>
       </c>
       <c r="F62">
         <v>7250</v>
@@ -16965,7 +16965,7 @@
         <v>7793.75</v>
       </c>
       <c r="I62" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J62" t="s">
         <v>461</v>
@@ -16982,13 +16982,13 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D63" t="s">
+        <v>782</v>
+      </c>
+      <c r="E63" t="s">
         <v>783</v>
-      </c>
-      <c r="E63" t="s">
-        <v>784</v>
       </c>
       <c r="F63">
         <v>4800</v>
@@ -17000,7 +17000,7 @@
         <v>5160</v>
       </c>
       <c r="I63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J63" t="s">
         <v>578</v>
@@ -17047,10 +17047,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>653</v>
+        <v>1174</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>332</v>
@@ -17059,22 +17059,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>625</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>456</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -17298,7 +17298,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -17403,7 +17403,7 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -17613,7 +17613,7 @@
         <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -17648,7 +17648,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -17683,7 +17683,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -17718,7 +17718,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -17753,7 +17753,7 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -17823,7 +17823,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -17858,7 +17858,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -17893,7 +17893,7 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -17928,7 +17928,7 @@
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -17963,7 +17963,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -17998,7 +17998,7 @@
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -18033,7 +18033,7 @@
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -18068,7 +18068,7 @@
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F30">
         <v>40</v>
@@ -18103,7 +18103,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F31">
         <v>5</v>
@@ -18138,7 +18138,7 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -18208,7 +18208,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -18243,7 +18243,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -18278,7 +18278,7 @@
         <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F36">
         <v>1000</v>
@@ -18313,7 +18313,7 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F37">
         <v>10</v>
@@ -18348,7 +18348,7 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -18418,7 +18418,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -18453,7 +18453,7 @@
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -18488,7 +18488,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F42">
         <v>10</v>
@@ -18523,7 +18523,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -18558,7 +18558,7 @@
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -18593,7 +18593,7 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -18628,7 +18628,7 @@
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -18663,7 +18663,7 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F47">
         <v>500</v>
@@ -18698,7 +18698,7 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -18733,7 +18733,7 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -18768,7 +18768,7 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -18803,7 +18803,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -18838,7 +18838,7 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -18873,7 +18873,7 @@
         <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F53">
         <v>10</v>
@@ -18908,7 +18908,7 @@
         <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -18943,7 +18943,7 @@
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -18978,7 +18978,7 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -19013,7 +19013,7 @@
         <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -19083,7 +19083,7 @@
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F59">
         <v>10</v>
@@ -19118,7 +19118,7 @@
         <v>43</v>
       </c>
       <c r="E60" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F60">
         <v>10</v>
@@ -19153,7 +19153,7 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -19188,7 +19188,7 @@
         <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -19223,7 +19223,7 @@
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F63">
         <v>10</v>
@@ -19258,7 +19258,7 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F64">
         <v>8</v>
@@ -19293,7 +19293,7 @@
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -19328,7 +19328,7 @@
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -19363,7 +19363,7 @@
         <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -19398,7 +19398,7 @@
         <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -19433,7 +19433,7 @@
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -19468,7 +19468,7 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -19503,7 +19503,7 @@
         <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F71">
         <v>15</v>
@@ -19538,7 +19538,7 @@
         <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F72">
         <v>15</v>
@@ -19573,7 +19573,7 @@
         <v>43</v>
       </c>
       <c r="E73" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -19608,7 +19608,7 @@
         <v>43</v>
       </c>
       <c r="E74" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -19643,7 +19643,7 @@
         <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F75">
         <v>6</v>
@@ -19678,7 +19678,7 @@
         <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -19713,7 +19713,7 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F77">
         <v>5</v>
@@ -19748,7 +19748,7 @@
         <v>43</v>
       </c>
       <c r="E78" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -19783,7 +19783,7 @@
         <v>43</v>
       </c>
       <c r="E79" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F79">
         <v>10</v>
@@ -19818,7 +19818,7 @@
         <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -19853,7 +19853,7 @@
         <v>43</v>
       </c>
       <c r="E81" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -19923,7 +19923,7 @@
         <v>44</v>
       </c>
       <c r="E83" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -19958,7 +19958,7 @@
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F84">
         <v>5</v>
@@ -19993,7 +19993,7 @@
         <v>43</v>
       </c>
       <c r="E85" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -20028,7 +20028,7 @@
         <v>43</v>
       </c>
       <c r="E86" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F86">
         <v>25</v>
@@ -20082,19 +20082,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>348</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>332</v>
@@ -20114,7 +20114,7 @@
         <v>279.5</v>
       </c>
       <c r="E2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -20131,13 +20131,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D3">
         <v>2096.25</v>
       </c>
       <c r="E3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -20154,13 +20154,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D4">
         <v>1236.25</v>
       </c>
       <c r="E4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -20177,13 +20177,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D5">
         <v>1128.75</v>
       </c>
       <c r="E5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -20200,13 +20200,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D6">
         <v>279.5</v>
       </c>
       <c r="E6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -20223,13 +20223,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D7">
         <v>817</v>
       </c>
       <c r="E7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -20246,13 +20246,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D8">
         <v>2236</v>
       </c>
       <c r="E8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -20269,13 +20269,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D9">
         <v>2150</v>
       </c>
       <c r="E9" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -20292,13 +20292,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D10">
         <v>1225.5</v>
       </c>
       <c r="E10" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -20315,13 +20315,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D11">
         <v>3063.75</v>
       </c>
       <c r="E11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -20338,13 +20338,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D12">
         <v>1075</v>
       </c>
       <c r="E12" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -20361,13 +20361,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D13">
         <v>1182.5</v>
       </c>
       <c r="E13" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -20384,13 +20384,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D14">
         <v>1720</v>
       </c>
       <c r="E14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -20407,13 +20407,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D15">
         <v>408.5</v>
       </c>
       <c r="E15" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -20430,13 +20430,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D16">
         <v>3762.5</v>
       </c>
       <c r="E16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -20453,13 +20453,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D17">
         <v>4407.5</v>
       </c>
       <c r="E17" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -20476,13 +20476,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D18">
         <v>3827</v>
       </c>
       <c r="E18" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -20499,13 +20499,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D19">
         <v>3440</v>
       </c>
       <c r="E19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -20522,13 +20522,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D20">
         <v>5536.25</v>
       </c>
       <c r="E20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -20545,13 +20545,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D21">
         <v>3332.5</v>
       </c>
       <c r="E21" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -20568,13 +20568,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D22">
         <v>5267.5</v>
       </c>
       <c r="E22" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F22">
         <v>3</v>
@@ -20591,13 +20591,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D23">
         <v>2472.5</v>
       </c>
       <c r="E23" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -20614,13 +20614,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D24">
         <v>1343.75</v>
       </c>
       <c r="E24" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -20637,13 +20637,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D25">
         <v>2257.5</v>
       </c>
       <c r="E25" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -20660,13 +20660,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D26">
         <v>2752</v>
       </c>
       <c r="E26" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -20683,13 +20683,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D27">
         <v>3493.75</v>
       </c>
       <c r="E27" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -20706,13 +20706,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D28">
         <v>4085</v>
       </c>
       <c r="E28" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -20729,13 +20729,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D29">
         <v>1612.5</v>
       </c>
       <c r="E29" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -20752,13 +20752,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D30">
         <v>1451.25</v>
       </c>
       <c r="E30" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -20775,13 +20775,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D31">
         <v>2472.5</v>
       </c>
       <c r="E31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -20798,13 +20798,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D32">
         <v>2150</v>
       </c>
       <c r="E32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F32">
         <v>3</v>
@@ -20821,13 +20821,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D33">
         <v>4031.25</v>
       </c>
       <c r="E33" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -20844,13 +20844,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D34">
         <v>3493.75</v>
       </c>
       <c r="E34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -20867,13 +20867,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D35">
         <v>2203.75</v>
       </c>
       <c r="E35" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -20890,13 +20890,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D36">
         <v>3225</v>
       </c>
       <c r="E36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -20913,13 +20913,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D37">
         <v>2580</v>
       </c>
       <c r="E37" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -20936,13 +20936,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D38">
         <v>3225</v>
       </c>
       <c r="E38" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -20959,13 +20959,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D39">
         <v>2795</v>
       </c>
       <c r="E39" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -20982,13 +20982,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D40">
         <v>3225</v>
       </c>
       <c r="E40" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -21005,13 +21005,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D41">
         <v>1290</v>
       </c>
       <c r="E41" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -21028,13 +21028,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D42">
         <v>2150</v>
       </c>
       <c r="E42" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -21051,13 +21051,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D43">
         <v>2902.5</v>
       </c>
       <c r="E43" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -21074,13 +21074,13 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D44">
         <v>4192.5</v>
       </c>
       <c r="E44" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -21097,13 +21097,13 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D45">
         <v>3762.5</v>
       </c>
       <c r="E45" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -21120,13 +21120,13 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D46">
         <v>2150</v>
       </c>
       <c r="E46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -21143,13 +21143,13 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D47">
         <v>3386.25</v>
       </c>
       <c r="E47" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -21166,13 +21166,13 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D48">
         <v>6127.5</v>
       </c>
       <c r="E48" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -21189,13 +21189,13 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D49">
         <v>430</v>
       </c>
       <c r="E49" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -21212,13 +21212,13 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D50">
         <v>4192.5</v>
       </c>
       <c r="E50" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -21235,13 +21235,13 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D51">
         <v>4783.75</v>
       </c>
       <c r="E51" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -21258,13 +21258,13 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D52">
         <v>806.25</v>
       </c>
       <c r="E52" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -21281,13 +21281,13 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D53">
         <v>3977.5</v>
       </c>
       <c r="E53" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -21304,13 +21304,13 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D54">
         <v>483.75</v>
       </c>
       <c r="E54" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F54">
         <v>3</v>
@@ -21327,13 +21327,13 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D55">
         <v>4730</v>
       </c>
       <c r="E55" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -21350,13 +21350,13 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D56">
         <v>5482.5</v>
       </c>
       <c r="E56" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -21373,13 +21373,13 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D57">
         <v>1075</v>
       </c>
       <c r="E57" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -21396,13 +21396,13 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D58">
         <v>7793.75</v>
       </c>
       <c r="E58" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -21984,10 +21984,10 @@
         <v>2130</v>
       </c>
       <c r="C22" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D22" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -22010,10 +22010,10 @@
         <v>2135</v>
       </c>
       <c r="C23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D23" t="s">
         <v>1148</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1149</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -22547,10 +22547,10 @@
         <v>5550</v>
       </c>
       <c r="C44" t="s">
+        <v>873</v>
+      </c>
+      <c r="D44" t="s">
         <v>874</v>
-      </c>
-      <c r="D44" t="s">
-        <v>875</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -22677,10 +22677,10 @@
         <v>5910</v>
       </c>
       <c r="C49" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D49" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -22703,10 +22703,10 @@
         <v>5920</v>
       </c>
       <c r="C50" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D50" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E50">
         <v>5</v>
@@ -22729,10 +22729,10 @@
         <v>5930</v>
       </c>
       <c r="C51" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D51" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -22755,10 +22755,10 @@
         <v>5950</v>
       </c>
       <c r="C52" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D52" t="s">
         <v>1140</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1141</v>
       </c>
       <c r="E52">
         <v>5</v>
@@ -22832,10 +22832,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>348</v>
@@ -22844,7 +22844,7 @@
         <v>625</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>456</v>
@@ -22856,7 +22856,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>332</v>
@@ -22867,10 +22867,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -22885,7 +22885,7 @@
         <v>50000</v>
       </c>
       <c r="I2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -22899,10 +22899,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -22917,7 +22917,7 @@
         <v>2150</v>
       </c>
       <c r="I3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -22934,7 +22934,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D4" t="s">
         <v>458</v>
@@ -22952,7 +22952,7 @@
         <v>537.5</v>
       </c>
       <c r="I4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J4">
         <v>4</v>
@@ -22969,7 +22969,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D5" t="s">
         <v>463</v>
@@ -22987,7 +22987,7 @@
         <v>7525</v>
       </c>
       <c r="I5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -23001,10 +23001,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -23019,7 +23019,7 @@
         <v>376.25</v>
       </c>
       <c r="I6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -23033,10 +23033,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -23051,7 +23051,7 @@
         <v>12000</v>
       </c>
       <c r="I7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J7">
         <v>4</v>
@@ -23068,7 +23068,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D8" t="s">
         <v>466</v>
@@ -23088,7 +23088,7 @@
         <v>5160</v>
       </c>
       <c r="I8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -23102,10 +23102,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D9" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -23120,7 +23120,7 @@
         <v>2150</v>
       </c>
       <c r="I9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -23134,7 +23134,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D10" t="s">
         <v>290</v>
@@ -23152,7 +23152,7 @@
         <v>10000</v>
       </c>
       <c r="I10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -23166,7 +23166,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D11" t="s">
         <v>290</v>
@@ -23184,7 +23184,7 @@
         <v>5375</v>
       </c>
       <c r="I11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -23201,7 +23201,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D12" t="s">
         <v>372</v>
@@ -23219,7 +23219,7 @@
         <v>537.5</v>
       </c>
       <c r="I12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -23233,10 +23233,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D13" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -23251,7 +23251,7 @@
         <v>806.25</v>
       </c>
       <c r="I13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -23265,7 +23265,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D14" t="s">
         <v>531</v>
@@ -23283,7 +23283,7 @@
         <v>645</v>
       </c>
       <c r="I14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -23300,7 +23300,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D15" t="s">
         <v>377</v>
@@ -23318,7 +23318,7 @@
         <v>645</v>
       </c>
       <c r="I15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -23332,10 +23332,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -23350,7 +23350,7 @@
         <v>913.75</v>
       </c>
       <c r="I16" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -23364,7 +23364,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D17" t="s">
         <v>546</v>
@@ -23382,7 +23382,7 @@
         <v>430</v>
       </c>
       <c r="I17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -23396,7 +23396,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D18" t="s">
         <v>376</v>
@@ -23414,7 +23414,7 @@
         <v>10000</v>
       </c>
       <c r="I18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -23428,7 +23428,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D19" t="s">
         <v>382</v>
@@ -23446,7 +23446,7 @@
         <v>806.25</v>
       </c>
       <c r="I19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -23463,10 +23463,10 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -23481,7 +23481,7 @@
         <v>1290</v>
       </c>
       <c r="I20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -23495,7 +23495,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D21" t="s">
         <v>561</v>
@@ -23513,7 +23513,7 @@
         <v>537.5</v>
       </c>
       <c r="I21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -23527,7 +23527,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D22" t="s">
         <v>381</v>
@@ -23545,7 +23545,7 @@
         <v>5000</v>
       </c>
       <c r="I22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -23559,7 +23559,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D23" t="s">
         <v>381</v>
@@ -23577,7 +23577,7 @@
         <v>5000</v>
       </c>
       <c r="I23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -23591,10 +23591,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -23609,7 +23609,7 @@
         <v>1612.5</v>
       </c>
       <c r="I24" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -23626,10 +23626,10 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D25" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -23644,7 +23644,7 @@
         <v>860</v>
       </c>
       <c r="I25" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -23658,7 +23658,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D26" t="s">
         <v>575</v>
@@ -23676,7 +23676,7 @@
         <v>2500</v>
       </c>
       <c r="I26" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -23690,7 +23690,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D27" t="s">
         <v>386</v>
@@ -23708,7 +23708,7 @@
         <v>20000</v>
       </c>
       <c r="I27" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -23722,10 +23722,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D28" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -23740,7 +23740,7 @@
         <v>860</v>
       </c>
       <c r="I28" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -23757,10 +23757,10 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -23775,7 +23775,7 @@
         <v>1021.25</v>
       </c>
       <c r="I29" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -23789,7 +23789,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D30" t="s">
         <v>594</v>
@@ -23807,7 +23807,7 @@
         <v>645</v>
       </c>
       <c r="I30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -23821,7 +23821,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D31" t="s">
         <v>390</v>
@@ -23839,7 +23839,7 @@
         <v>8000</v>
       </c>
       <c r="I31" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -23853,7 +23853,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D32" t="s">
         <v>390</v>
@@ -23871,7 +23871,7 @@
         <v>8000</v>
       </c>
       <c r="I32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -23885,10 +23885,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -23903,7 +23903,7 @@
         <v>1505</v>
       </c>
       <c r="I33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -23920,10 +23920,10 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -23938,7 +23938,7 @@
         <v>1182.5</v>
       </c>
       <c r="I34" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -23952,7 +23952,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D35" t="s">
         <v>612</v>
@@ -23970,7 +23970,7 @@
         <v>537.5</v>
       </c>
       <c r="I35" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -23984,7 +23984,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D36" t="s">
         <v>392</v>
@@ -24002,7 +24002,7 @@
         <v>10000</v>
       </c>
       <c r="I36" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -24016,7 +24016,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D37" t="s">
         <v>392</v>
@@ -24034,7 +24034,7 @@
         <v>10000</v>
       </c>
       <c r="I37" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -24074,10 +24074,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>653</v>
+        <v>1174</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>332</v>
@@ -24086,16 +24086,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>625</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>456</v>
@@ -24115,7 +24115,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -24150,7 +24150,7 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -24185,7 +24185,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -24220,7 +24220,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -24255,7 +24255,7 @@
         <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -24290,7 +24290,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -24325,7 +24325,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -24360,7 +24360,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -24395,7 +24395,7 @@
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -24430,7 +24430,7 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -24465,7 +24465,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -24500,7 +24500,7 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -24535,7 +24535,7 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -24570,7 +24570,7 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -24605,7 +24605,7 @@
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -24640,7 +24640,7 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -24675,7 +24675,7 @@
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -24710,7 +24710,7 @@
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -24745,7 +24745,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -24780,7 +24780,7 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -24815,7 +24815,7 @@
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -24850,7 +24850,7 @@
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -24885,7 +24885,7 @@
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -24920,7 +24920,7 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -24955,7 +24955,7 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -24990,7 +24990,7 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -25025,7 +25025,7 @@
         <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -25060,7 +25060,7 @@
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -25095,7 +25095,7 @@
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -25130,7 +25130,7 @@
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -25165,7 +25165,7 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -25221,7 +25221,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>348</v>
@@ -25230,22 +25230,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1146</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
@@ -25259,10 +25259,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E2">
         <v>50000</v>
@@ -25285,10 +25285,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>815</v>
+      </c>
+      <c r="D3" t="s">
         <v>816</v>
-      </c>
-      <c r="D3" t="s">
-        <v>817</v>
       </c>
       <c r="E3">
         <v>-2150</v>
@@ -25314,7 +25314,7 @@
         <v>458</v>
       </c>
       <c r="D4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E4">
         <v>-537.5</v>
@@ -25340,7 +25340,7 @@
         <v>458</v>
       </c>
       <c r="D5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E5">
         <v>-279.5</v>
@@ -25366,7 +25366,7 @@
         <v>463</v>
       </c>
       <c r="D6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E6">
         <v>7525</v>
@@ -25392,7 +25392,7 @@
         <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E7">
         <v>2687.5</v>
@@ -25415,10 +25415,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D8" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E8">
         <v>4568.75</v>
@@ -25441,10 +25441,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E9">
         <v>-2096.25</v>
@@ -25467,10 +25467,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>818</v>
+      </c>
+      <c r="D10" t="s">
         <v>819</v>
-      </c>
-      <c r="D10" t="s">
-        <v>820</v>
       </c>
       <c r="E10">
         <v>-376.25</v>
@@ -25493,10 +25493,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>820</v>
+      </c>
+      <c r="D11" t="s">
         <v>821</v>
-      </c>
-      <c r="D11" t="s">
-        <v>822</v>
       </c>
       <c r="E11">
         <v>-12000</v>
@@ -25522,7 +25522,7 @@
         <v>466</v>
       </c>
       <c r="D12" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E12">
         <v>-537.5</v>
@@ -25545,10 +25545,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D13" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E13">
         <v>1075</v>
@@ -25571,10 +25571,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E14">
         <v>-1236.25</v>
@@ -25597,10 +25597,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E15">
         <v>-2150</v>
@@ -25623,10 +25623,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D16" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E16">
         <v>6450</v>
@@ -25649,10 +25649,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D17" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E17">
         <v>-1128.75</v>
@@ -25675,10 +25675,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D18" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E18">
         <v>5375</v>
@@ -25701,10 +25701,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D19" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E19">
         <v>-279.5</v>
@@ -25727,10 +25727,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D20" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E20">
         <v>2687.5</v>
@@ -25753,10 +25753,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D21" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E21">
         <v>-817</v>
@@ -25779,10 +25779,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D22" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E22">
         <v>4031.25</v>
@@ -25805,10 +25805,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D23" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E23">
         <v>-2236</v>
@@ -25831,10 +25831,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D24" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E24">
         <v>1612.5</v>
@@ -25857,10 +25857,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D25" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E25">
         <v>-2150</v>
@@ -25886,7 +25886,7 @@
         <v>482</v>
       </c>
       <c r="D26" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E26">
         <v>3225</v>
@@ -25909,10 +25909,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D27" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E27">
         <v>-1225.5</v>
@@ -25938,7 +25938,7 @@
         <v>484</v>
       </c>
       <c r="D28" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E28">
         <v>3225</v>
@@ -25961,10 +25961,10 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D29" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E29">
         <v>-3063.75</v>
@@ -25990,7 +25990,7 @@
         <v>486</v>
       </c>
       <c r="D30" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E30">
         <v>483.75</v>
@@ -26013,10 +26013,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D31" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E31">
         <v>-1075</v>
@@ -26042,7 +26042,7 @@
         <v>489</v>
       </c>
       <c r="D32" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E32">
         <v>3225</v>
@@ -26065,10 +26065,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D33" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E33">
         <v>-1182.5</v>
@@ -26094,7 +26094,7 @@
         <v>487</v>
       </c>
       <c r="D34" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E34">
         <v>483.75</v>
@@ -26117,10 +26117,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D35" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E35">
         <v>-1720</v>
@@ -26146,7 +26146,7 @@
         <v>490</v>
       </c>
       <c r="D36" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E36">
         <v>3225</v>
@@ -26169,10 +26169,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D37" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E37">
         <v>-408.5</v>
@@ -26198,7 +26198,7 @@
         <v>496</v>
       </c>
       <c r="D38" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E38">
         <v>3225</v>
@@ -26221,10 +26221,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D39" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E39">
         <v>-1343.75</v>
@@ -26250,7 +26250,7 @@
         <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E40">
         <v>1612.5</v>
@@ -26273,10 +26273,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D41" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E41">
         <v>-2257.5</v>
@@ -26302,7 +26302,7 @@
         <v>290</v>
       </c>
       <c r="D42" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E42">
         <v>-10000</v>
@@ -26328,7 +26328,7 @@
         <v>290</v>
       </c>
       <c r="D43" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E43">
         <v>-5375</v>
@@ -26354,7 +26354,7 @@
         <v>502</v>
       </c>
       <c r="D44" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E44">
         <v>946</v>
@@ -26377,10 +26377,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D45" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E45">
         <v>-3762.5</v>
@@ -26406,7 +26406,7 @@
         <v>505</v>
       </c>
       <c r="D46" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E46">
         <v>2418.75</v>
@@ -26429,10 +26429,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D47" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E47">
         <v>-4407.5</v>
@@ -26458,7 +26458,7 @@
         <v>508</v>
       </c>
       <c r="D48" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E48">
         <v>6450</v>
@@ -26481,10 +26481,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D49" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E49">
         <v>-3827</v>
@@ -26510,7 +26510,7 @@
         <v>511</v>
       </c>
       <c r="D50" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E50">
         <v>1935</v>
@@ -26533,10 +26533,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D51" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E51">
         <v>-3440</v>
@@ -26562,7 +26562,7 @@
         <v>509</v>
       </c>
       <c r="D52" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E52">
         <v>4837.5</v>
@@ -26585,10 +26585,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D53" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E53">
         <v>-5536.25</v>
@@ -26614,7 +26614,7 @@
         <v>512</v>
       </c>
       <c r="D54" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E54">
         <v>4837.5</v>
@@ -26637,10 +26637,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D55" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E55">
         <v>-3332.5</v>
@@ -26666,7 +26666,7 @@
         <v>517</v>
       </c>
       <c r="D56" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E56">
         <v>806.25</v>
@@ -26689,10 +26689,10 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D57" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E57">
         <v>-5267.5</v>
@@ -26718,7 +26718,7 @@
         <v>519</v>
       </c>
       <c r="D58" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E58">
         <v>3225</v>
@@ -26741,10 +26741,10 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D59" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E59">
         <v>-2472.5</v>
@@ -26770,7 +26770,7 @@
         <v>520</v>
       </c>
       <c r="D60" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E60">
         <v>4515</v>
@@ -26793,10 +26793,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D61" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E61">
         <v>-2752</v>
@@ -26822,7 +26822,7 @@
         <v>522</v>
       </c>
       <c r="D62" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E62">
         <v>-537.5</v>
@@ -26845,10 +26845,10 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D63" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E63">
         <v>3225</v>
@@ -26874,7 +26874,7 @@
         <v>525</v>
       </c>
       <c r="D64" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E64">
         <v>-3493.75</v>
@@ -26897,10 +26897,10 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D65" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E65">
         <v>7632.5</v>
@@ -26926,7 +26926,7 @@
         <v>528</v>
       </c>
       <c r="D66" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E66">
         <v>-4085</v>
@@ -26949,10 +26949,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D67" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E67">
         <v>-806.25</v>
@@ -26978,7 +26978,7 @@
         <v>531</v>
       </c>
       <c r="D68" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E68">
         <v>2687.5</v>
@@ -27001,10 +27001,10 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D69" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E69">
         <v>-1612.5</v>
@@ -27030,7 +27030,7 @@
         <v>533</v>
       </c>
       <c r="D70" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E70">
         <v>-645</v>
@@ -27053,10 +27053,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D71" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E71">
         <v>3762.5</v>
@@ -27082,7 +27082,7 @@
         <v>372</v>
       </c>
       <c r="D72" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E72">
         <v>-1451.25</v>
@@ -27105,10 +27105,10 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D73" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E73">
         <v>4031.25</v>
@@ -27134,7 +27134,7 @@
         <v>531</v>
       </c>
       <c r="D74" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E74">
         <v>-2472.5</v>
@@ -27160,7 +27160,7 @@
         <v>536</v>
       </c>
       <c r="D75" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E75">
         <v>3225</v>
@@ -27183,10 +27183,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D76" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E76">
         <v>-2150</v>
@@ -27212,7 +27212,7 @@
         <v>539</v>
       </c>
       <c r="D77" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E77">
         <v>-645</v>
@@ -27235,10 +27235,10 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D78" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E78">
         <v>4031.25</v>
@@ -27264,7 +27264,7 @@
         <v>537</v>
       </c>
       <c r="D79" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E79">
         <v>-4031.25</v>
@@ -27287,10 +27287,10 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D80" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E80">
         <v>4837.5</v>
@@ -27316,7 +27316,7 @@
         <v>540</v>
       </c>
       <c r="D81" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E81">
         <v>-3493.75</v>
@@ -27339,10 +27339,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D82" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E82">
         <v>-913.75</v>
@@ -27368,7 +27368,7 @@
         <v>546</v>
       </c>
       <c r="D83" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E83">
         <v>3225</v>
@@ -27391,10 +27391,10 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D84" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E84">
         <v>-2203.75</v>
@@ -27420,7 +27420,7 @@
         <v>548</v>
       </c>
       <c r="D85" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E85">
         <v>-430</v>
@@ -27443,10 +27443,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D86" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E86">
         <v>6450</v>
@@ -27472,7 +27472,7 @@
         <v>377</v>
       </c>
       <c r="D87" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E87">
         <v>-3225</v>
@@ -27495,10 +27495,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D88" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E88">
         <v>4515</v>
@@ -27524,7 +27524,7 @@
         <v>546</v>
       </c>
       <c r="D89" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E89">
         <v>-2580</v>
@@ -27550,7 +27550,7 @@
         <v>376</v>
       </c>
       <c r="D90" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E90">
         <v>10000</v>
@@ -27576,7 +27576,7 @@
         <v>547</v>
       </c>
       <c r="D91" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E91">
         <v>4837.5</v>
@@ -27599,10 +27599,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D92" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="E92">
         <v>-3225</v>
@@ -27628,7 +27628,7 @@
         <v>549</v>
       </c>
       <c r="D93" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E93">
         <v>-806.25</v>
@@ -27651,10 +27651,10 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D94" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E94">
         <v>7095</v>
@@ -27680,7 +27680,7 @@
         <v>555</v>
       </c>
       <c r="D95" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E95">
         <v>-2795</v>
@@ -27703,10 +27703,10 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D96" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E96">
         <v>6450</v>
@@ -27732,7 +27732,7 @@
         <v>558</v>
       </c>
       <c r="D97" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E97">
         <v>-3225</v>
@@ -27755,10 +27755,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D98" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E98">
         <v>-1290</v>
@@ -27784,7 +27784,7 @@
         <v>561</v>
       </c>
       <c r="D99" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E99">
         <v>4031.25</v>
@@ -27807,10 +27807,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D100" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E100">
         <v>-1290</v>
@@ -27836,7 +27836,7 @@
         <v>564</v>
       </c>
       <c r="D101" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E101">
         <v>-537.5</v>
@@ -27859,10 +27859,10 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D102" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E102">
         <v>6450</v>
@@ -27888,7 +27888,7 @@
         <v>382</v>
       </c>
       <c r="D103" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E103">
         <v>-2150</v>
@@ -27911,10 +27911,10 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D104" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E104">
         <v>5160</v>
@@ -27940,7 +27940,7 @@
         <v>561</v>
       </c>
       <c r="D105" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E105">
         <v>-2902.5</v>
@@ -27966,7 +27966,7 @@
         <v>381</v>
       </c>
       <c r="D106" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E106">
         <v>-5000</v>
@@ -27992,7 +27992,7 @@
         <v>381</v>
       </c>
       <c r="D107" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E107">
         <v>5000</v>
@@ -28018,7 +28018,7 @@
         <v>562</v>
       </c>
       <c r="D108" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E108">
         <v>7525</v>
@@ -28041,10 +28041,10 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D109" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E109">
         <v>-4192.5</v>
@@ -28070,7 +28070,7 @@
         <v>565</v>
       </c>
       <c r="D110" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E110">
         <v>-1612.5</v>
@@ -28093,10 +28093,10 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D111" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E111">
         <v>6127.5</v>
@@ -28122,7 +28122,7 @@
         <v>571</v>
       </c>
       <c r="D112" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="E112">
         <v>-3762.5</v>
@@ -28145,10 +28145,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D113" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E113">
         <v>8062.5</v>
@@ -28174,7 +28174,7 @@
         <v>574</v>
       </c>
       <c r="D114" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E114">
         <v>-2150</v>
@@ -28197,10 +28197,10 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D115" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E115">
         <v>-860</v>
@@ -28226,7 +28226,7 @@
         <v>572</v>
       </c>
       <c r="D116" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E116">
         <v>6235</v>
@@ -28249,10 +28249,10 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D117" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E117">
         <v>-3386.25</v>
@@ -28275,10 +28275,10 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D118" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E118">
         <v>3762.5</v>
@@ -28301,10 +28301,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D119" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E119">
         <v>-6127.5</v>
@@ -28330,7 +28330,7 @@
         <v>575</v>
       </c>
       <c r="D120" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E120">
         <v>-2500</v>
@@ -28356,7 +28356,7 @@
         <v>386</v>
       </c>
       <c r="D121" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E121">
         <v>-20000</v>
@@ -28382,7 +28382,7 @@
         <v>582</v>
       </c>
       <c r="D122" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E122">
         <v>3762.5</v>
@@ -28405,10 +28405,10 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D123" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E123">
         <v>-430</v>
@@ -28434,7 +28434,7 @@
         <v>586</v>
       </c>
       <c r="D124" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E124">
         <v>-860</v>
@@ -28457,10 +28457,10 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D125" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E125">
         <v>9460</v>
@@ -28486,7 +28486,7 @@
         <v>589</v>
       </c>
       <c r="D126" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E126">
         <v>-4192.5</v>
@@ -28509,10 +28509,10 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D127" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E127">
         <v>6450</v>
@@ -28538,7 +28538,7 @@
         <v>592</v>
       </c>
       <c r="D128" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E128">
         <v>-4783.75</v>
@@ -28561,10 +28561,10 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D129" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E129">
         <v>-1021.25</v>
@@ -28590,7 +28590,7 @@
         <v>594</v>
       </c>
       <c r="D130" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E130">
         <v>6450</v>
@@ -28613,10 +28613,10 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D131" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E131">
         <v>-806.25</v>
@@ -28639,10 +28639,10 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D132" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E132">
         <v>-645</v>
@@ -28665,10 +28665,10 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D133" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E133">
         <v>9675</v>
@@ -28694,7 +28694,7 @@
         <v>594</v>
       </c>
       <c r="D134" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E134">
         <v>-3977.5</v>
@@ -28720,7 +28720,7 @@
         <v>390</v>
       </c>
       <c r="D135" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E135">
         <v>-8000</v>
@@ -28746,7 +28746,7 @@
         <v>390</v>
       </c>
       <c r="D136" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E136">
         <v>8000</v>
@@ -28772,7 +28772,7 @@
         <v>603</v>
       </c>
       <c r="D137" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E137">
         <v>7525</v>
@@ -28795,10 +28795,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D138" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="E138">
         <v>-483.75</v>
@@ -28824,7 +28824,7 @@
         <v>607</v>
       </c>
       <c r="D139" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E139">
         <v>-1505</v>
@@ -28847,10 +28847,10 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D140" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E140">
         <v>8062.5</v>
@@ -28876,7 +28876,7 @@
         <v>604</v>
       </c>
       <c r="D141" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E141">
         <v>-4730</v>
@@ -28899,10 +28899,10 @@
         <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D142" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E142">
         <v>7256.25</v>
@@ -28928,7 +28928,7 @@
         <v>608</v>
       </c>
       <c r="D143" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E143">
         <v>-5482.5</v>
@@ -28951,10 +28951,10 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D144" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E144">
         <v>-1182.5</v>
@@ -28980,7 +28980,7 @@
         <v>612</v>
       </c>
       <c r="D145" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E145">
         <v>3762.5</v>
@@ -29003,10 +29003,10 @@
         <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D146" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="E146">
         <v>-1075</v>
@@ -29029,10 +29029,10 @@
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D147" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E147">
         <v>-537.5</v>
@@ -29055,10 +29055,10 @@
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D148" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E148">
         <v>1290</v>
@@ -29084,7 +29084,7 @@
         <v>612</v>
       </c>
       <c r="D149" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E149">
         <v>-7793.75</v>
@@ -29110,7 +29110,7 @@
         <v>392</v>
       </c>
       <c r="D150" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E150">
         <v>-10000</v>
@@ -29136,7 +29136,7 @@
         <v>392</v>
       </c>
       <c r="D151" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E151">
         <v>10000</v>
@@ -29200,7 +29200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -29227,13 +29227,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>112</v>
@@ -29845,7 +29845,7 @@
         <v>272</v>
       </c>
       <c r="H13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I13" t="s">
         <v>269</v>
@@ -29895,7 +29895,7 @@
         <v>278</v>
       </c>
       <c r="H14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I14" t="s">
         <v>275</v>
@@ -29945,7 +29945,7 @@
         <v>284</v>
       </c>
       <c r="H15" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I15" t="s">
         <v>281</v>
@@ -30040,7 +30040,7 @@
         <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>107</v>
@@ -30058,7 +30058,7 @@
         <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>300</v>
@@ -30120,7 +30120,7 @@
         <v>301</v>
       </c>
       <c r="Q2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -30134,10 +30134,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D3" t="s">
         <v>214</v>
@@ -30176,7 +30176,7 @@
         <v>121</v>
       </c>
       <c r="P3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -30190,10 +30190,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D4" t="s">
         <v>222</v>
@@ -30247,10 +30247,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D5" t="s">
         <v>230</v>
@@ -30304,10 +30304,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C6" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D6" t="s">
         <v>238</v>
@@ -30361,10 +30361,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D7" t="s">
         <v>245</v>
@@ -30463,10 +30463,10 @@
         <v>289</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>876</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>877</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -30708,13 +30708,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -30725,13 +30725,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -30742,13 +30742,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E6">
         <v>1</v>
